--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\git\Migrator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6CDA5-6801-42C6-A3A5-056ECE61FC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物属性和数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="192">
   <si>
     <t>1. 体力（探索和受伤都会消耗体力，低的话会有饥饿和生病状态，行动缓慢，通过睡觉，吃东西恢复体力）</t>
   </si>
@@ -525,83 +531,86 @@
     <t>energy</t>
   </si>
   <si>
+    <t>201:2;203:1;205:2</t>
+  </si>
+  <si>
+    <t>205:1;206:2</t>
+  </si>
+  <si>
+    <t>202:1;208:1</t>
+  </si>
+  <si>
+    <t>201:2;205:1</t>
+  </si>
+  <si>
+    <t>206:2;207:1;208:1</t>
+  </si>
+  <si>
+    <t>201:1;203:1;204:1</t>
+  </si>
+  <si>
+    <t>208:2</t>
+  </si>
+  <si>
+    <t>201:2;203:1;206:2</t>
+  </si>
+  <si>
+    <t>201:2;204:2;206:1</t>
+  </si>
+  <si>
+    <t>202:1;203:1;208:2</t>
+  </si>
+  <si>
+    <t>201:2;205:3;206:2;204:1</t>
+  </si>
+  <si>
+    <t>201:1;202:1;204:1;208:1</t>
+  </si>
+  <si>
+    <t>201:3;203:2;205:2;207:1</t>
+  </si>
+  <si>
+    <t>201:3;203:1;204:1;208:2</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>bagCount</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>kid</t>
+  </si>
+  <si>
+    <t>mechanist</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>floor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nextFloorPoint</t>
-  </si>
-  <si>
-    <t>201:2;203:1;205:2</t>
-  </si>
-  <si>
-    <t>205:1;206:2</t>
-  </si>
-  <si>
-    <t>202:1;208:1</t>
-  </si>
-  <si>
-    <t>201:2;205:1</t>
-  </si>
-  <si>
-    <t>206:2;207:1;208:1</t>
-  </si>
-  <si>
-    <t>201:1;203:1;204:1</t>
-  </si>
-  <si>
-    <t>208:2</t>
-  </si>
-  <si>
-    <t>201:2;203:1;206:2</t>
-  </si>
-  <si>
-    <t>201:2;204:2;206:1</t>
-  </si>
-  <si>
-    <t>202:1;203:1;208:2</t>
-  </si>
-  <si>
-    <t>201:2;205:3;206:2;204:1</t>
-  </si>
-  <si>
-    <t>201:1;202:1;204:1;208:1</t>
-  </si>
-  <si>
-    <t>201:3;203:2;205:2;207:1</t>
-  </si>
-  <si>
-    <t>201:3;203:1;204:1;208:2</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>bagCount</t>
-  </si>
-  <si>
-    <t>robot</t>
-  </si>
-  <si>
-    <t>kid</t>
-  </si>
-  <si>
-    <t>mechanist</t>
-  </si>
-  <si>
-    <t>soldier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,158 +641,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,204 +665,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -997,263 +684,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1261,62 +698,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1603,69 +1005,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="20.25" spans="1:15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="3"/>
       <c r="O6" t="s">
         <v>11</v>
       </c>
@@ -1673,32 +1075,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="8">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>100</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>30</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>20</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="4"/>
       <c r="O7" t="s">
         <v>15</v>
       </c>
@@ -1715,20 +1117,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="O8" t="s">
         <v>20</v>
       </c>
@@ -1736,662 +1138,662 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="13" ht="20.25" spans="1:15">
-      <c r="A13" s="6" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="13" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="O14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="8">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>100</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
         <v>15</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
         <v>20</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>30</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
       <c r="O15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+    <row r="16" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
       <c r="O16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="8" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="7" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="7" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="8" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="7" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="32" ht="20.25" spans="1:15">
-      <c r="A32" s="6" t="s">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
       <c r="O32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7" t="s">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="7"/>
+      <c r="M33" s="3"/>
       <c r="O33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="8">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
         <v>100</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4">
         <v>30</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
         <v>50</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
         <v>20</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>15</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
         <v>25</v>
       </c>
-      <c r="M34" s="8"/>
+      <c r="M34" s="4"/>
       <c r="O34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
       <c r="O35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="7" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="10" t="s">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="7" t="s">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="8" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8" t="s">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2401,14 +1803,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2428,7 +1830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>201</v>
       </c>
@@ -2439,7 +1841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>202</v>
       </c>
@@ -2453,7 +1855,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>203</v>
       </c>
@@ -2464,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>204</v>
       </c>
@@ -2475,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>205</v>
       </c>
@@ -2486,7 +1888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>206</v>
       </c>
@@ -2497,7 +1899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>207</v>
       </c>
@@ -2508,7 +1910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>208</v>
       </c>
@@ -2519,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>209</v>
       </c>
@@ -2539,7 +1941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>210</v>
       </c>
@@ -2559,7 +1961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>211</v>
       </c>
@@ -2580,40 +1982,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2636,7 +2037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>301</v>
       </c>
@@ -2652,14 +2053,14 @@
       <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>301</v>
       </c>
@@ -2675,14 +2076,14 @@
       <c r="E7" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G7">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>301</v>
       </c>
@@ -2698,14 +2099,14 @@
       <c r="E8" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G8">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>302</v>
       </c>
@@ -2718,17 +2119,17 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G9">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>302</v>
       </c>
@@ -2741,17 +2142,17 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>302</v>
       </c>
@@ -2764,17 +2165,17 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>303</v>
       </c>
@@ -2787,17 +2188,17 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G12">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>304</v>
       </c>
@@ -2810,17 +2211,17 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G13">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>304</v>
       </c>
@@ -2833,17 +2234,17 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>304</v>
       </c>
@@ -2856,17 +2257,17 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>305</v>
       </c>
@@ -2879,17 +2280,17 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>306</v>
       </c>
@@ -2902,17 +2303,17 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>307</v>
       </c>
@@ -2925,17 +2326,17 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>308</v>
       </c>
@@ -2948,17 +2349,17 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>308</v>
       </c>
@@ -2971,17 +2372,17 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>308</v>
       </c>
@@ -2994,10 +2395,10 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G21">
@@ -3008,29 +2409,35 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3050,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>501</v>
       </c>
@@ -3070,7 +2477,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>502</v>
       </c>
@@ -3090,7 +2497,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>503</v>
       </c>
@@ -3111,38 +2518,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A4" sqref="A4:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -3152,25 +2558,28 @@
       <c r="C4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>170</v>
+      <c r="C5" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3181,8 +2590,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3190,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3201,8 +2613,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3210,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3221,8 +2636,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3230,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3241,16 +2659,19 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>174</v>
+      <c r="C9" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3261,8 +2682,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3270,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3281,16 +2705,19 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>176</v>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3301,8 +2728,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3310,7 +2740,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -3321,16 +2751,19 @@
       <c r="F12">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>178</v>
+      <c r="C13" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -3341,8 +2774,11 @@
       <c r="F13">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3350,7 +2786,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -3361,16 +2797,19 @@
       <c r="F14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>180</v>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -3381,8 +2820,11 @@
       <c r="F15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3390,7 +2832,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -3401,16 +2843,19 @@
       <c r="F16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>182</v>
+      <c r="C17" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -3421,8 +2866,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3430,7 +2878,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -3440,30 +2888,32 @@
       </c>
       <c r="F18">
         <v>0</v>
+      </c>
+      <c r="G18">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="3:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>501</v>
       </c>
@@ -3474,7 +2924,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3485,21 +2935,21 @@
         <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -3514,12 +2964,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4">
         <v>85</v>
@@ -3534,12 +2984,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3554,12 +3004,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -3575,8 +3025,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\git\Migrator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanxinyi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6CDA5-6801-42C6-A3A5-056ECE61FC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="人物属性和数值" sheetId="1" r:id="rId1"/>
@@ -19,13 +18,16 @@
     <sheet name="人物属性消耗表" sheetId="6" r:id="rId4"/>
     <sheet name="地图列表" sheetId="2" r:id="rId5"/>
     <sheet name="人物" sheetId="7" r:id="rId6"/>
+    <sheet name="属性" sheetId="8" r:id="rId7"/>
+    <sheet name="心情" sheetId="12" r:id="rId8"/>
+    <sheet name="力量" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="203">
   <si>
     <t>1. 体力（探索和受伤都会消耗体力，低的话会有饥饿和生病状态，行动缓慢，通过睡觉，吃东西恢复体力）</t>
   </si>
@@ -604,13 +606,57 @@
   </si>
   <si>
     <t>enemy</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitbyenermy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>build</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>onepeopledie</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>onenight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitbyenermy：在怪物攻击范围内的格子里移动一次被扣的体力值；onenight：游戏开始的第四天开始，每天晚上会消耗15体力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜晚和白天保护发生意外的概率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情值由体力决定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +701,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -688,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -698,6 +750,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,7 +759,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,11 +1063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1793,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -1989,11 +2042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2003,16 +2056,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2416,21 +2469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
@@ -2525,11 +2571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2539,14 +2585,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -2558,13 +2604,13 @@
       <c r="C4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>190</v>
       </c>
       <c r="G4" t="s">
@@ -2904,7 +2950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3029,4 +3075,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>501</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>502</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>503</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1">
+        <v>501</v>
+      </c>
+      <c r="C1">
+        <v>501</v>
+      </c>
+      <c r="D1">
+        <v>501</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>502</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>503</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanxinyi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物属性和数值" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="200">
   <si>
     <t>1. 体力（探索和受伤都会消耗体力，低的话会有饥饿和生病状态，行动缓慢，通过睡觉，吃东西恢复体力）</t>
   </si>
@@ -326,13 +321,16 @@
     <t>物品建造和升级需要的材料和数量列表</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>material</t>
   </si>
   <si>
     <t>level</t>
   </si>
   <si>
-    <t>createtime(h)</t>
+    <t>createtime</t>
   </si>
   <si>
     <t>power</t>
@@ -533,6 +531,15 @@
     <t>energy</t>
   </si>
   <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>nextFloorPoint</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
     <t>201:2;203:1;205:2</t>
   </si>
   <si>
@@ -593,70 +600,48 @@
     <t>soldier</t>
   </si>
   <si>
-    <t>energy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>floor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextFloorPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>hitbyenermy：在怪物攻击范围内的格子里移动一次被扣的体力值；onenight：游戏开始的第四天开始，每天晚上会消耗15体力</t>
   </si>
   <si>
     <t>hitbyenermy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>build</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>protect</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>onepeopledie</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>onenight</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitbyenermy：在怪物攻击范围内的格子里移动一次被扣的体力值；onenight：游戏开始的第四天开始，每天晚上会消耗15体力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情值由体力决定</t>
   </si>
   <si>
     <t>夜晚和白天保护发生意外的概率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>心情值由体力决定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,28 +672,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,18 +825,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -736,42 +1030,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1058,69 +1638,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="20.25" spans="1:15">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="9"/>
       <c r="O6" t="s">
         <v>11</v>
       </c>
@@ -1128,32 +1708,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:22">
+      <c r="A7" s="10">
         <v>100</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
         <v>30</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>20</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="10"/>
       <c r="O7" t="s">
         <v>15</v>
       </c>
@@ -1170,20 +1750,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+    <row r="8" spans="1:19">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="O8" t="s">
         <v>20</v>
       </c>
@@ -1191,679 +1771,679 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="13" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="13" ht="20.25" spans="1:15">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="O13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
       <c r="O14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+    <row r="15" spans="1:15">
+      <c r="A15" s="10">
         <v>100</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10">
         <v>10</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <v>15</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
         <v>20</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
         <v>30</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
       <c r="O15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+    <row r="16" ht="16.5" customHeight="1" spans="1:15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
       <c r="O16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="32" ht="20.25" spans="1:15">
+      <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
       <c r="O32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:15">
+      <c r="A33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3" t="s">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="9"/>
       <c r="O33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+    <row r="34" spans="1:15">
+      <c r="A34" s="10">
         <v>100</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10">
         <v>30</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10">
         <v>50</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10">
         <v>20</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10">
         <v>15</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4">
+      <c r="K34" s="10"/>
+      <c r="L34" s="10">
         <v>25</v>
       </c>
-      <c r="M34" s="4"/>
+      <c r="M34" s="10"/>
       <c r="O34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+    <row r="35" spans="1:15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
       <c r="O35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="36" spans="1:13">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="6" t="s">
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1883,7 +2463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>201</v>
       </c>
@@ -1894,7 +2474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>202</v>
       </c>
@@ -1908,7 +2488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>203</v>
       </c>
@@ -1919,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>204</v>
       </c>
@@ -1930,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>205</v>
       </c>
@@ -1941,7 +2521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>206</v>
       </c>
@@ -1952,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>207</v>
       </c>
@@ -1963,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>208</v>
       </c>
@@ -1974,7 +2554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>209</v>
       </c>
@@ -1994,7 +2574,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>210</v>
       </c>
@@ -2014,7 +2594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>211</v>
       </c>
@@ -2035,39 +2615,46 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="4" spans="6:6">
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2075,30 +2662,30 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2106,22 +2693,22 @@
       <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>105</v>
+      <c r="F6" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>301</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2129,22 +2716,22 @@
       <c r="E7" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>107</v>
+      <c r="F7" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="G7">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -2152,307 +2739,307 @@
       <c r="E8" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>109</v>
+      <c r="F8" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="G8">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>113</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G9">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>116</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="G10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>119</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="G11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>123</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="G12">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>116</v>
+      <c r="E13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="G13">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>129</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="G14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>132</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="G15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>107</v>
+      <c r="E16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="G16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>109</v>
+      <c r="E17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="G17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>116</v>
+      <c r="E18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>105</v>
+      <c r="E19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>146</v>
+      <c r="E20" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>123</v>
+      <c r="E21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="G21">
         <v>40</v>
@@ -2462,28 +3049,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2503,129 +3091,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>501</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>502</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>168</v>
+      <c r="C5" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2640,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2648,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2663,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2671,7 +3260,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2686,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2694,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2709,15 +3298,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>172</v>
+      <c r="C9" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2732,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2740,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2755,15 +3344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>174</v>
+      <c r="C11" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2778,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2786,7 +3375,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -2801,15 +3390,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>176</v>
+      <c r="C13" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -2824,7 +3413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2832,7 +3421,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -2847,15 +3436,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>178</v>
+      <c r="C15" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2870,7 +3459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2878,7 +3467,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -2893,15 +3482,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>180</v>
+      <c r="C17" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -2916,7 +3505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2924,7 +3513,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -2943,23 +3532,24 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:5">
       <c r="C1">
         <v>501</v>
       </c>
@@ -2970,7 +3560,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2978,24 +3568,24 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -3010,12 +3600,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C4">
         <v>85</v>
@@ -3030,12 +3620,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3050,12 +3640,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -3071,53 +3661,54 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="5" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
       <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>501</v>
       </c>
@@ -3137,7 +3728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>502</v>
       </c>
@@ -3157,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>503</v>
       </c>
@@ -3178,29 +3769,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="5" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>202</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B1">
         <v>501</v>
@@ -3211,11 +3803,11 @@
       <c r="D1">
         <v>501</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3227,7 +3819,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>502</v>
       </c>
@@ -3242,29 +3834,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3282,28 +3875,28 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>503</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="2">
         <v>0.2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="2">
         <v>0.3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="2">
         <v>0.5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="2">
         <v>0.7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="2">
         <v>0.95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>